--- a/lsj7087/5step_list/CheckListForm_5step.xlsx
+++ b/lsj7087/5step_list/CheckListForm_5step.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/작업용/5step_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{EF8591CC-B795-4C82-9264-1FBF9B7C8374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85429F62-46E6-4880-AE1E-36B6E554372B}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{EF8591CC-B795-4C82-9264-1FBF9B7C8374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4A428C1-2B64-4F38-9380-E879320D3019}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="4650" windowWidth="21580" windowHeight="12750" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="27">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>https://www.acmicpc.net/problem/4344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021.09.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,19 +645,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -665,49 +696,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,6 +712,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1041,7 @@
   <dimension ref="B1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1052,11 +1056,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1072,23 +1076,25 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="1">
         <v>10818</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1100,109 +1106,111 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="35"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="35"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="35"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="36"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="35"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B14" s="36"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="2:6" ht="7.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="1">
         <v>2562</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="10" t="s">
         <v>19</v>
       </c>
@@ -1214,109 +1222,111 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" s="39"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B21" s="39"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="39"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="40"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="35"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B26" s="36"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="33"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="1">
         <v>2577</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
@@ -1328,109 +1338,111 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="2:6" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B32" s="35"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B33" s="35"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B34" s="35"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="36"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B37" s="35"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B38" s="36"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
     </row>
     <row r="39" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="40" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="1">
         <v>3052</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1442,109 +1454,111 @@
       </c>
     </row>
     <row r="42" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="14"/>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="22"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B44" s="35"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B45" s="35"/>
+      <c r="B45" s="27"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B46" s="35"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B47" s="36"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="12"/>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B49" s="35"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B50" s="36"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="26" t="s">
+      <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
     </row>
     <row r="51" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="52" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="33"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="1">
         <v>1546</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="19"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="10" t="s">
         <v>23</v>
       </c>
@@ -1556,109 +1570,111 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="25"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="14"/>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="22"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B56" s="35"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B57" s="35"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B58" s="35"/>
+      <c r="B58" s="27"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B59" s="36"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="20" t="s">
+      <c r="D60" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="22"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B61" s="35"/>
+      <c r="B61" s="27"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="23" t="s">
+      <c r="D61" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B62" s="36"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="12"/>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
     </row>
     <row r="63" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="64" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="33"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="1">
         <v>8958</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="65" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="19"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="10" t="s">
         <v>24</v>
       </c>
@@ -1670,109 +1686,111 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="25"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="14"/>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="22"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="31"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B68" s="35"/>
+      <c r="B68" s="27"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="25"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B69" s="35"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="25"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B70" s="35"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B71" s="36"/>
+      <c r="B71" s="28"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="20"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B72" s="37" t="s">
+      <c r="B72" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="1"/>
-      <c r="D72" s="20" t="s">
+      <c r="D72" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B73" s="35"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="13"/>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="25"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B74" s="36"/>
+      <c r="B74" s="28"/>
       <c r="C74" s="12"/>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
     </row>
     <row r="75" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="76" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="33"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="1">
         <v>4344</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="77" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="19"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="10" t="s">
         <v>25</v>
       </c>
@@ -1784,99 +1802,161 @@
       </c>
     </row>
     <row r="78" spans="2:6" ht="26" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="31"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="14"/>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="21"/>
-      <c r="F79" s="22"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="31"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B80" s="35"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B81" s="35"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B82" s="35"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B83" s="36"/>
+      <c r="B83" s="28"/>
       <c r="C83" s="12"/>
-      <c r="D83" s="26" t="s">
+      <c r="D83" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="20"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="1"/>
-      <c r="D84" s="20" t="s">
+      <c r="D84" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="22"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="31"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B85" s="35"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="13"/>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="25"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="17"/>
     </row>
     <row r="86" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="36"/>
+      <c r="B86" s="28"/>
       <c r="C86" s="12"/>
-      <c r="D86" s="26" t="s">
+      <c r="D86" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="28"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B72:B74"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D86:F86"/>
@@ -1893,80 +1973,18 @@
     <mergeCell ref="D74:F74"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:B59"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{42841F31-660E-6C4B-AE83-8194DFFB0230}"/>
-    <hyperlink ref="D17" r:id="rId2" display="https://www.acmicpc.net/problem/10951" xr:uid="{A1FA9704-E320-F645-B2C8-EEE5AC2AED9E}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{A1FA9704-E320-F645-B2C8-EEE5AC2AED9E}"/>
     <hyperlink ref="D29" r:id="rId3" xr:uid="{84AFE441-06E8-490D-94F4-A3E689A45EB6}"/>
     <hyperlink ref="D41" r:id="rId4" xr:uid="{AAF9B712-D431-441E-A07A-94A8835B5544}"/>
     <hyperlink ref="D53" r:id="rId5" xr:uid="{91CC4870-059D-4D78-BE83-9E5FD7105F84}"/>
